--- a/generated_output/temp/us-core-diagnosticreport-lab.xlsx
+++ b/generated_output/temp/us-core-diagnosticreport-lab.xlsx
@@ -181,7 +181,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -200,7 +200,7 @@
     <t>DiagnosticReport.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -216,7 +216,7 @@
     <t>DiagnosticReport.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -235,7 +235,7 @@
     <t>DiagnosticReport.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -267,7 +267,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -293,7 +293,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -319,7 +319,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -358,7 +358,7 @@
 Filler IDPlacer ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -393,7 +393,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/CarePlan], CanonicalType[http://hl7.org/fhir/StructureDefinition/ImmunizationRecommendation], CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/NutritionOrder], CanonicalType[http://hl7.org/fhir/StructureDefinition/ServiceRequest]]}
+    <t xml:space="preserve">Reference(CarePlan|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
 </t>
   </si>
   <si>
@@ -455,7 +455,7 @@
 Sub-departmentServiceDiscipline</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -548,7 +548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient]]}
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>
@@ -580,7 +580,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter]]}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -615,8 +615,8 @@
 Effective TimeOccurrence</t>
   </si>
   <si>
-    <t>dateTime {[]} {[]}
-Period {[]} {[]}</t>
+    <t>dateTime
+Period</t>
   </si>
   <si>
     <t>Specimen Collection Datetime or Period</t>
@@ -650,7 +650,7 @@
 Date IssuedDate Verified</t>
   </si>
   <si>
-    <t xml:space="preserve">instant {[]} {[]}
+    <t xml:space="preserve">instant
 </t>
   </si>
   <si>
@@ -682,7 +682,7 @@
 ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner], CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization]]}
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization)
 </t>
   </si>
   <si>
@@ -717,7 +717,7 @@
 Reported by</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/PractitionerRole], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization], CanonicalType[http://hl7.org/fhir/StructureDefinition/CareTeam]]}
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam)
 </t>
   </si>
   <si>
@@ -736,7 +736,7 @@
     <t>DiagnosticReport.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Specimen]]}
+    <t xml:space="preserve">Reference(Specimen)
 </t>
   </si>
   <si>
@@ -762,7 +762,7 @@
 Atomic ValueResultAtomic resultDataTestAnalyteBatteryOrganizer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-lab]]}
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-lab)
 </t>
   </si>
   <si>
@@ -791,7 +791,7 @@
     <t>DiagnosticReport.imagingStudy</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/ImagingStudy]]}
+    <t xml:space="preserve">Reference(ImagingStudy)
 </t>
   </si>
   <si>
@@ -814,7 +814,7 @@
 SlidesScans</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -837,7 +837,7 @@
     <t>DiagnosticReport.media.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -900,7 +900,7 @@
     <t>DiagnosticReport.media.link</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Media]]}
+    <t xml:space="preserve">Reference(Media)
 </t>
   </si>
   <si>
@@ -956,7 +956,7 @@
     <t>DiagnosticReport.presentedForm</t>
   </si>
   <si>
-    <t xml:space="preserve">Attachment {[]} {[]}
+    <t xml:space="preserve">Attachment
 </t>
   </si>
   <si>
@@ -1025,67 +1025,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
